--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/30_Erzincan_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/30_Erzincan_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81326F63-F3EB-4724-8D54-7A6045EE954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E958CBBF-D199-474D-852E-7CE38E0D6746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="664" xr2:uid="{2248F379-D13E-494D-A9A9-DE86FDF2F65C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{076FDD43-B695-426C-AC2B-09FA03F62C81}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -968,13 +968,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{005825E2-734B-4EF1-B0FE-F0E4DAFE7324}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AFBA55AC-A9EF-417B-8AC8-D07A27791164}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D53871FF-D72D-4719-A9BA-154559242F7D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{79C2F6C9-42FB-4285-B5C4-F9C64687F356}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4803463F-1DDE-4E7A-BA0B-474C76335616}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{67D16C5E-A106-479A-953D-1E2946D207C3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D1442BCE-7982-40EE-9683-C250A2EE5509}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3E0009A0-702B-4F56-9AE9-E7D2E33B3F46}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D61A64B8-2A7A-4A65-B045-1BA4B67F15B3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{19C5E53E-3197-49F7-8929-E8D8ECBE138B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B80B0F3B-0B93-4718-8D9F-72D98FF0BA37}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FC4FDB37-7B63-4D00-8C36-A8D219B0B31D}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{03FB0050-7C94-4BDA-92E7-8397F618A682}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8B957B4C-C53C-4B7E-9765-20CD6BA8B75A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1344,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD84456-4B24-466E-A466-C268CFA0F04C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3831F2-527A-4348-A13E-87E01094A9FE}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2590,17 +2590,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C10B7F20-A16F-43A1-9EB6-C23EF5507C01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8ABAE837-A0C4-4E0E-9C96-5ACE18F98D47}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FEA6096-C65B-4A55-BCDC-A32129493A54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69E1B011-8414-4C2A-B35A-BBEF37BCA4F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA5A8407-82C3-4DB7-8CD5-C5159F982681}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9DA5567A-E02F-4830-AAE8-2A4D3405639E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B1117BC-C210-45E9-844A-7A0DCECB84D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9610368-FE02-433F-BB90-9F06C92EFD2A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9F1962FD-4198-4412-A7B9-D20C38163F66}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0C6C42B9-EE4E-4D82-8EAB-E17C2C36345C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{115C85F4-BA53-4483-99CE-A63E8061C67A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{715690BC-31D4-4E07-AA2A-425B7C783437}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B917A17-D3B6-40F1-95AF-3AECACF12FBD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4056C7C0-BB9F-4173-99BD-23E0980DFF82}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AAE37048-32C8-4D13-96DA-3CDF6B1AF993}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BD8AAF6-2558-41D3-AED4-4CEE77B3A43F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9F0F066-73E1-42B4-8B31-3FB24DD4674C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7008387-6526-451A-9960-5EBAA8168DE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4577D453-95A5-4A39-9A12-E084F1D544E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{46F30E22-18B6-4E9F-A63A-0115F8391C0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8038E249-A778-42DF-8D58-BE648465F571}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B609D4A6-B7AD-4E46-BC9E-28BF3221148E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2613,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9C8DE-6379-4753-93C9-D33C4862ECB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253E4A1-C9BF-4F05-952E-78674AA2DD2F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3853,17 +3853,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9492533D-F6C1-45F8-B38B-BA9B5ACA54C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9FF1D91-B9D5-44AA-A364-4FF91FFF1BAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D672A63-6301-4FCE-8863-1A2798EED84F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C76500D8-375F-4C12-9D8B-DA59F089B05E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89A67A09-418C-4FEB-902D-522E022DC2E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{026E600A-14A5-4287-A568-1E3B1BDB523C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90D12A97-21B9-4CE4-8777-13D179D82E81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9C6E25A-1146-4011-9798-EB5B212EB8AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3DB7F473-6658-4B80-A2FE-1BEE25975046}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{172D918A-F401-4E6D-9D74-75D471298E5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89447CAE-5ECC-46D9-885F-6A24C2BD4873}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8C62245-AC19-446A-B621-843711071E62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B3A3C43-3391-4BF2-A348-91A6F7542A8A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F7150A76-FA7C-4C59-A6D2-2DDED753D4C8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{132C0923-5A1B-4C8B-ABA1-B79E230A130C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C22C5B9-715C-4B8D-9E7E-80D42D664475}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40EE1E60-61EE-4B55-9154-8ABA012E32BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7512E05-3A52-4C06-8327-7E1FD2193120}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB5C62A7-B7A2-4D67-ABA2-CD93C743DBC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{93FF8B45-657D-491E-8683-EC03E8FD9E2E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{607EC93E-F5F0-485B-B45A-1CA04C9F2C6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{353F2FA5-1487-4F86-AD47-4FA6FAB79992}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3876,7 +3876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B33D79-DC98-41E7-801D-A9CFE7A21520}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F132F28A-D1BC-40FE-A859-935E65D8B610}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5104,17 +5104,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F79B430-1F95-4F3C-9D40-3522F7CB9DB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED50B518-2A4E-4AE7-BDEA-BBFBDD0D126B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{736FE279-6A32-4377-894E-D1BE5CE36B55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53C4DEDE-20F4-4F00-8EE8-6F169C16C498}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EE37958-854A-48E2-9F96-AC89BCC535C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{23E7545E-A402-4FD6-9B68-8BF0FE899374}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4717385B-BD53-4F43-AD28-8EB878D7A864}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29F7D02C-9A71-41F0-9733-0667D71BB6DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D97AE1D4-A483-4C95-A2C4-A36B0350466A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FD893612-8206-446F-B6EB-E9FA2FCF33B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB9F4175-3A26-4ABE-8664-A9A5BD68C8F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FB77307-69ED-4C89-8FA7-28E61D370D91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D22600A-D8F5-431D-BB34-0D2AF4DD173A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{92DE4CA5-3150-45C9-B353-5FD76F38DD6B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A55F48B-2E85-4236-9FF7-FB9E2ADF1B7F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F2DC814-3B10-4A04-B3D0-BA910C0B2F38}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81AF57AB-DD6C-49A8-ADE9-82EA28733639}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28FD9A84-726F-4B5C-97BF-43525C9DD145}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C844D498-0C22-4BFE-9C88-C8CECA91B241}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D7A90D6A-18BE-42D4-B6F4-45AF84CAFE00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8E23AEAB-E338-4FF8-97E6-5278440E80EA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{116C36B1-3DBC-474E-923D-91489D846D1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5127,7 +5127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E9DD5F-4CB6-4062-82E7-2C69F6F85068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11531E0D-076E-4CEC-BCB5-DAD29D290A6C}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6351,17 +6351,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F80D7E36-23D2-4040-9473-74474B08F749}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3764060F-0E5D-4800-9D4F-28251815676D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49164CBB-9B4B-490D-BD1C-054F721A8799}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED41754D-94AF-4F37-91B7-E3A3EC246ACF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42D01278-3921-4864-A0EC-34A0D3D6D0AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BFD0DFB8-4FD7-424B-9AAE-343E593C6A2A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67C8BF49-F829-40D8-B888-FD25155FA18C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89D22248-BE3A-409A-BA10-C4AA2A913411}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9DB260DE-BE81-41DD-B349-EC211732CC7F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8030FAF5-99D7-4AF6-B73D-DD25421F597C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9AC54B7-364A-4139-AB52-C284052CA3FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64B4BCA8-8B3B-4486-9A65-C08D452E077D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{596F6887-3BDA-4AF6-9EA4-C4FBA9B4E79F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0635BBB0-371A-4305-AC9A-5F96F1B5CE0E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15219D8B-169A-4333-9271-13F2B106935F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C74E43A8-5EA6-4D3D-A2CA-031CA6CDA4D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92A0F8A3-146B-45B6-A3CF-0A6C8072DF37}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{115D4451-5F0C-4D7E-ACD0-AC17AC32CF02}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F194B95A-F8BF-4006-AA95-F684C893F991}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CE2E1D43-E2D2-4E25-BD49-E2472C1B53E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FA58DBDA-7EDD-4776-B651-CC9820507294}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F19E6646-CD76-4EAA-AE70-C876A3DD8DF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6374,7 +6374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96208B1E-2565-4B93-A05C-C88D67AE5781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E7F784-0846-4D49-AF28-4A5D05263919}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7617,17 +7617,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BBD54F6-B60F-4ED7-9071-457E9A759894}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A553235-2177-4B83-80ED-98C156EA73C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6A6D1E9-8AA9-41DA-AAE7-37016577A95F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7ED9A4B-F85C-4205-9905-60ADE8B849FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE4EEB1B-346C-4022-8CF3-ACD7C4E15BB2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09898287-F63B-4504-8E4F-8D85439639DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B20E567-9F0D-43FD-AB7F-E80F7294A899}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39FC849A-2233-49F6-8568-FE0C400BD93E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{57D0596B-24C3-4BC2-AE35-76652FCA7CAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C007B1F7-791E-4833-B1B0-CA098D61E27C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78CF1D78-53CD-484E-A363-EA6DC2813820}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D515A27-48FF-45AA-AA55-505A95422B09}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FD600A7-7AC1-4760-A5A3-0064BB1E09D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F4293FB0-BEA7-4DB9-AA4E-89BAA8DF2AC1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C176491-C4CA-462D-91C6-D633DA38D7A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0AE7E2CD-15A7-4AC9-8EB2-04C13070460B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E8BCE5C-A7F3-4F4D-ADDE-2DF246E9472A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{550BE138-8CB7-4EA2-A2CB-4503C1B6563E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80CEF801-0BC7-4982-B244-42021A9899D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{127190A5-00DD-4FFA-AFD5-DAC639867878}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3CFD389B-898A-49A9-99D2-84C5213A2600}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C33164FD-2CBC-406F-98ED-F81B12B99532}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7640,7 +7640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C0D3AA-A9C8-456E-81FD-D2EDA21A9729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF9DFBE-1DB7-4701-9E1B-BC86BBC3EA63}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8883,17 +8883,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9479D50-358F-40C3-8888-3722A898A33D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFB98F92-71C7-4BD6-A146-1E7DBA6AA562}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B419E01E-E2BD-461C-AA4A-11E51B559AE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{45061605-2573-46A5-BCB7-FA997ABCC7CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83DCA1C4-BD5D-439D-9949-6149055F41C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{434616E0-146B-4196-85A9-9BB828E7CC05}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6223152C-7D0C-4765-9887-30EBD296D472}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B59816B5-22D6-4630-82EE-54CAA3722AFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C0EB3BC1-09D4-4E83-8668-E8A80D84CA35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9D82642D-C424-404C-A711-D21861A19634}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E33151F-B852-4C61-A2C1-FCF61BAEBF0D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED8CA07D-E006-4C78-BC73-E13DD4942789}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C073A5F-6439-4CB8-A73A-D5B94E4ED7A0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{109522F6-C16D-458B-9454-EF0535D86C20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A8A6094-4112-4C99-A0AB-B93689AACB3B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42877469-6046-4385-A380-9BF386081C15}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4F3B338-18A3-4C0F-AA87-BFD7894AC5DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5599F530-EEF1-4582-AB2F-E091E412FB0D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93900C54-FFE9-4645-9448-F9444D0629B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B4BF5C35-E914-4FE0-8247-009163E0299F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0E00CEB8-F351-4F0F-9E89-DC78B2D0786F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B83D1D1-CCB5-42E2-9298-FC3CC29792DD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8906,7 +8906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193843AD-F13A-43F1-AFDA-87CC76E024B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11539A96-1C73-41D2-9672-1AF7D76BCCAA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10145,17 +10145,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B18C57FE-4502-46A7-A86E-D61504F47CF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8474FF93-0B14-4088-8B30-5D01C38C8968}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7C0FCE61-BFBB-4835-9667-969DBB858FDE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4F1AD7F0-142C-45E5-A8A4-93683249B61E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CD19C11-101C-42A8-B7BA-6CDA5B4F8666}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8F8AC27-62D7-43E0-8B21-FBEED710617B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E98D99B-649E-4597-ABB2-429B917A30B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33E15A18-EE32-435C-BE97-ABB664D6F7BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{26EC9BA4-F4A5-467F-A436-736CA59DCB99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{81C82759-F24C-4F99-9BB7-7D53A8DD4F71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7439EFE-5AC7-4798-AA55-1407DD75931E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{872162F4-81A2-464E-AAEA-5179C3051BAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48200948-EB33-42F8-8526-2685B7E1AAEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99A63AF3-FF01-48A4-A6B1-1CFE1EDB9D7B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3751AD99-40BA-42B3-9A55-5A8B44997223}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7AA27F6A-6A27-450C-BA0A-BE45817923E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6AE5C538-E0CC-4FC0-8B4F-1C7FDA5BEC5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FDA544A-A280-4A62-9C55-509874C259DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FD40BA7-D502-4B07-9D28-C2F22F5E9DDC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{222F15F8-AC85-48DA-A0CE-098800FA8440}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{15C07521-7126-4F75-AF55-AADF599E52FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBE4D158-F357-4F4F-8634-A47BFF3BF11A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10168,7 +10168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D1B27D-61E3-49D8-82F6-B61170465177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A13A996-EC86-409B-9161-4239C63117BF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11407,17 +11407,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AA487DF-3E25-47D5-A191-96DE6612CC3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B2DD12F-F96D-4860-BD20-617D9D5BCCE1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A485637B-41D5-4310-9069-CF703EFC4426}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{74A16DF0-7BDA-4EDB-937E-9FE67A0F32F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F743E7D-6CD3-4893-9E47-0F83EFB1D6B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86A492F7-DC88-4C6D-BF71-F20C4018203A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BB403C8-DDF7-47BB-B52F-21005A528E22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCA69EBA-DB35-4F89-A583-0018E00CBFBE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{067E1704-EEFE-4483-91AF-AC8EDE19A3CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{15DA294F-4A60-48D1-ADD2-14DE595C7152}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BF8C03E-37B7-488A-8DC3-E9C8C9E562D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3813B216-D9B7-4352-94E9-19A00D41E55A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3E4BCA6-D4F3-4F55-974B-EE2418FC2651}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{357CAC45-D59C-4933-8715-CA439337EA96}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E317C85F-2D61-4D9A-8205-FD0208C05CF8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D4669A5-9C55-4929-AEFC-B70F744BB613}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD6ED891-EF86-4830-8044-0DDE4F508B31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE9BA960-84DB-4C7D-8727-24957329C810}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14914A59-8638-4E53-82B8-0182AB775F81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D76F24A2-8DA0-4847-813B-1346DBEF3DBB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{981E315D-8BB3-425D-A89A-62B8A279E3D7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{328A7B58-68C4-4AC2-93B4-A2E776985C97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11430,7 +11430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C545F8-C976-4F15-B49A-44CBC62509D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC58D44D-18D6-4336-9D46-575A8CB29F43}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12669,17 +12669,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39E10333-FF4B-4C0B-A72F-A5E3E7CAA499}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E44DF4A3-0F1C-4C1A-8CB9-8F27BEC42312}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A52F0D2E-E94A-406B-8DE6-8E6DEC1BC4D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9DA3DDF7-3CBE-4C35-8E5C-709EB08CA4B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3405CFE-16F3-4687-A50B-3E25D694DE7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB38F401-121B-4848-86A3-EF1C358DA635}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E0B0044-05A1-49AF-92BD-DD8F2E79FDE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46EEC79A-1111-4F22-8D29-ADD1350B9524}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BCB7EC07-54F3-475F-A0E2-D4879DC4C4FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1EA803B7-E9D4-4E47-939D-7161F37A4330}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B25556F-8C2B-49BF-961E-E278241D5155}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B684ED59-AFBB-44DF-ABDA-EECE2D936EC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{692BBBBB-37C1-49AE-9A3E-FD3178327841}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0BA6EBD9-CAE5-4B73-AC69-5EE536977E23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09915591-22A4-47D9-A276-79CDA93A5243}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E4090DE-3032-4BA0-BBB8-57C983356454}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED255367-A183-4466-89CD-3C7152E2EEB6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E613FF31-28D2-4DEA-B728-CD01B9069848}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE139A24-37B2-4B29-917F-0B7E2F63F385}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BB28D7BA-AFB2-4C02-BA0A-4CC17EF01342}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1D48E3BC-4297-41E6-A805-601BD222850C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AC0ABE7-6263-4D5D-9438-B821BC3AFAD6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12692,7 +12692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7891CD0B-95A2-407F-84F7-C0BD89BC472A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC85919-DA30-4E66-A454-C0D4DBFA7058}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13931,17 +13931,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D865FAA-A45A-4567-B7D6-9396AB89A9B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F329A1C-506E-464D-854C-54B8C3BC907B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F91EBB39-7806-4B11-B735-F8EFC878BE59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A6CC86E-D398-4B0D-82D5-6587374795BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE599786-BAC4-4B6D-95CE-68476ED5338C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03A7D4EB-29F4-4365-9396-06A44F9FF15C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D799A84-C255-47B0-A04C-F1B21DDBC4C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAAB9DD9-3BBE-4956-86A2-49F546C52A21}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0958A846-929D-4BD4-80DB-4405A56B98BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{835CD6E4-1283-4B61-B6D7-22262CFCD40E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5FDD8D8-0982-493C-9F0C-3D3FF6BC59E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBE38248-0D9E-43A4-892D-522DD352BEA1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B773DDD3-1C36-43A6-AED0-56274CE3C06E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A0B8990-1D1F-46D6-855B-DFB55BB12710}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DD4FE01C-10BB-419F-BB45-75FCE5B45BCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2053647-9709-476F-AD9D-ABD9E6C57F9B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61387A36-678C-4FD5-A893-57E91527FDE8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C14B796E-4EE8-4AAC-BB41-30F091F7AE25}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F6F911D-7F05-4081-B433-609E880A2E7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A0D1B23D-4E90-4D09-93DE-AD32F4512E7C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{63CF270D-7DEC-42F9-86B3-A26C9613B74E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6347782F-4E6F-4F14-BD9B-2C8E2407D688}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13954,7 +13954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7A3818-165E-42B9-86F3-4F13DA516179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4F061-25FF-46A5-BC24-B90ABF4DA508}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15194,17 +15194,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8933F1A9-ED70-4E38-A7A4-2979EC71ECB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99804E5F-B78F-45D6-BB69-3DDE3C473CAF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F668830-FEC2-490B-BA09-4E9116E5FB73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C26E91ED-7BEC-4026-8BDF-D75B774FC11C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC85220E-9581-4DB2-9B11-4D4B5675BCE0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59671FA7-77D8-413F-822C-6BCFC2907029}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{824F2B9C-3216-4437-A8E7-40553B0C56D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7ED4DD0-C004-4815-A501-46E62BD9EE4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FAFE5A99-4AB5-4E59-AB61-E1C689C7D9C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2FC9551C-856E-4B02-92B9-DBB6481E5E31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D656C09-8DAF-48B9-97A6-995384F684E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A851756-EEF9-4691-B60D-4007F51FE44C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECE2FE50-A328-43C0-A691-CA04F780BDFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26A50329-5B39-442B-94DB-FA5BB0ED7D94}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB2AEC82-4F9B-4F1D-950B-0BC3B189F99C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7EF117D3-BBF7-47F9-BC00-F2F57248E0DE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB1D3604-B9B9-47B3-91B7-07BB76BA1C0B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA88516A-2456-49BC-9745-82C6067C6ACD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF3CDF02-C639-4FE9-B749-FAC3E164BA91}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E4713513-5951-4D4F-A5AF-D0E2EB4BD4D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{76F9E80D-9783-4FD8-BE6D-B042CDF5D62F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C9E0912-54D3-4C44-A7FE-E6811734F3B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15217,7 +15217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E71B96-643E-4185-BDD1-5774B813199A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1429AC63-EF95-4C08-B6A6-458A747B0B4F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16457,17 +16457,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6160A86-503E-4CBF-B7C6-1CDD8B7C2218}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9CC31D8-C50A-457B-B342-375CC114F683}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E0D4320-87BC-4220-97B9-DF66BF7ACEB2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A346DC04-D302-4C48-866C-5727D280ED0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64405375-EDDA-4FA4-ABE6-A3FDE4782C18}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93D34E96-538A-42A0-853F-638C711EDF4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42EEF955-B1E8-4BEA-86DA-BDAE052A59BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F966CA8-44D4-4228-AEC2-F2F9791B69BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58051890-4C7D-47DB-B7B9-9F0916EA5C99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3D064943-66BD-4A19-BC52-635F24EFA438}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3405B289-2FB1-403E-AFBA-E67BA1B52123}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC5373CC-D07F-4581-B7D6-291F2901DB87}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86EE38B7-EDEF-4494-B24F-B6483093C5A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9279120B-E0B5-4CAE-B233-04F1AC8CE907}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0011BB54-59B5-427D-82D0-18B232E84ACC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94E4691F-157B-4CF2-902F-764358A3E354}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DBF6387-2275-4770-AC81-76904185BE0C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68D2A93D-C6F6-4DA4-8234-10FBB16BC7C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A0F192E-A494-45FB-8C05-5186E8D6F6D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F3817DF1-906E-4ECE-B8E4-B9968E0670C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{93458C0D-CE41-4A10-8A5D-FCCC74DC5B09}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F91A6278-8185-4506-B0D9-8D38B41CC7DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
